--- a/input_data/admin_data/CHL/gpinter_CHL_2009.xlsx
+++ b/input_data/admin_data/CHL/gpinter_CHL_2009.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="229">
   <si>
     <t>year</t>
   </si>
@@ -204,6 +204,39 @@
     <t/>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>country</t>
   </si>
   <si>
@@ -393,10 +426,76 @@
     <t/>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>component</t>
   </si>
   <si>
     <t>postax</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t/>
@@ -644,7 +743,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J63"/>
+  <dimension ref="A1:J74"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -652,31 +751,31 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="C1" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="D1" t="s">
-        <v>189</v>
+        <v>222</v>
       </c>
       <c r="E1" t="s">
-        <v>190</v>
+        <v>223</v>
       </c>
       <c r="F1" t="s">
-        <v>191</v>
+        <v>224</v>
       </c>
       <c r="G1" t="s">
-        <v>192</v>
+        <v>225</v>
       </c>
       <c r="H1" t="s">
-        <v>193</v>
+        <v>226</v>
       </c>
       <c r="I1" t="s">
-        <v>194</v>
+        <v>227</v>
       </c>
       <c r="J1" t="s">
-        <v>195</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2">
@@ -684,31 +783,31 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="D2">
-        <v>1063147.8219711699</v>
+        <v>2049429.5099458699</v>
       </c>
       <c r="E2">
-        <v>0.65000000000000002</v>
+        <v>0.54000000000000004</v>
       </c>
       <c r="F2">
-        <v>511.61713666234198</v>
+        <v>35657.3177327753</v>
       </c>
       <c r="G2">
-        <v>0.999999975654291</v>
+        <v>0.99993398377282505</v>
       </c>
       <c r="H2">
-        <v>3037565.1316802399</v>
+        <v>4454987.4224821003</v>
       </c>
       <c r="I2">
-        <v>26536.274515538698</v>
+        <v>60042.796209047898</v>
       </c>
       <c r="J2">
-        <v>5937.1841050839903</v>
+        <v>124.938938365159</v>
       </c>
     </row>
     <row r="3">
@@ -716,29 +815,29 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="C3" t="s">
-        <v>128</v>
+        <v>150</v>
       </c>
       <c r="D3"/>
       <c r="E3">
-        <v>0.66000000000000003</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F3">
-        <v>53309.243672475</v>
+        <v>84945.158176140496</v>
       </c>
       <c r="G3">
-        <v>0.99975037466779404</v>
+        <v>0.99964101055311905</v>
       </c>
       <c r="H3">
-        <v>3126124.8039497901</v>
+        <v>4552652.8586215004</v>
       </c>
       <c r="I3">
-        <v>81632.625267097203</v>
+        <v>110906.346561602</v>
       </c>
       <c r="J3">
-        <v>58.641327255668699</v>
+        <v>53.595201379002802</v>
       </c>
     </row>
     <row r="4">
@@ -746,29 +845,29 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="C4" t="s">
-        <v>129</v>
+        <v>151</v>
       </c>
       <c r="D4"/>
       <c r="E4">
-        <v>0.67000000000000004</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="F4">
-        <v>110758.773376561</v>
+        <v>137409.65542414601</v>
       </c>
       <c r="G4">
-        <v>0.99898253576919505</v>
+        <v>0.99909985338707197</v>
       </c>
       <c r="H4">
-        <v>3218382.1426977501</v>
+        <v>4653601.6429864904</v>
       </c>
       <c r="I4">
-        <v>141547.601783766</v>
+        <v>165023.14806023301</v>
       </c>
       <c r="J4">
-        <v>29.057582027888699</v>
+        <v>33.8666277025591</v>
       </c>
     </row>
     <row r="5">
@@ -776,29 +875,29 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="C5" t="s">
-        <v>130</v>
+        <v>152</v>
       </c>
       <c r="D5"/>
       <c r="E5">
-        <v>0.68000000000000005</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="F5">
-        <v>173197.028117718</v>
+        <v>193204.87824726501</v>
       </c>
       <c r="G5">
-        <v>0.99765113482138201</v>
+        <v>0.99829463833937504</v>
       </c>
       <c r="H5">
-        <v>3314533.2221013098</v>
+        <v>4757987.1893801298</v>
       </c>
       <c r="I5">
-        <v>206628.23875689899</v>
+        <v>222549.89043441601</v>
       </c>
       <c r="J5">
-        <v>19.137356212882001</v>
+        <v>24.6266410690254</v>
       </c>
     </row>
     <row r="6">
@@ -806,29 +905,29 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="C6" t="s">
-        <v>131</v>
+        <v>153</v>
       </c>
       <c r="D6"/>
       <c r="E6">
-        <v>0.68999999999999995</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="F6">
-        <v>240981.33201755901</v>
+        <v>252490.11608639499</v>
       </c>
       <c r="G6">
-        <v>0.99570758346862798</v>
+        <v>0.99720872692180995</v>
       </c>
       <c r="H6">
-        <v>3414788.2215640401</v>
+        <v>4865973.7917359797</v>
       </c>
       <c r="I6">
-        <v>277242.26882602402</v>
+        <v>283648.41016512801</v>
       </c>
       <c r="J6">
-        <v>14.170343374628001</v>
+        <v>19.271937718429299</v>
       </c>
     </row>
     <row r="7">
@@ -836,29 +935,29 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="C7" t="s">
-        <v>132</v>
+        <v>154</v>
       </c>
       <c r="D7"/>
       <c r="E7">
-        <v>0.69999999999999996</v>
+        <v>0.58999999999999997</v>
       </c>
       <c r="F7">
-        <v>314489.866486346</v>
+        <v>315429.72071279399</v>
       </c>
       <c r="G7">
-        <v>0.99309983445107397</v>
+        <v>0.99582469098015602</v>
       </c>
       <c r="H7">
-        <v>3519373.0866553099</v>
+        <v>4977737.8254328296</v>
       </c>
       <c r="I7">
-        <v>353778.35660358798</v>
+        <v>348485.498944972</v>
       </c>
       <c r="J7">
-        <v>11.190736051293699</v>
+        <v>15.780814230771799</v>
       </c>
     </row>
     <row r="8">
@@ -866,29 +965,29 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="C8" t="s">
-        <v>133</v>
+        <v>155</v>
       </c>
       <c r="D8"/>
       <c r="E8">
-        <v>0.70999999999999996</v>
+        <v>0.59999999999999998</v>
       </c>
       <c r="F8">
-        <v>394121.77071643702</v>
+        <v>382192.87976669701</v>
       </c>
       <c r="G8">
-        <v>0.98977218471796702</v>
+        <v>0.99412428851569601</v>
       </c>
       <c r="H8">
-        <v>3628531.5256226002</v>
+        <v>5093469.1335950196</v>
       </c>
       <c r="I8">
-        <v>436646.03752631898</v>
+        <v>417232.63868652401</v>
       </c>
       <c r="J8">
-        <v>9.2066254523992406</v>
+        <v>13.326959771475201</v>
       </c>
     </row>
     <row r="9">
@@ -896,29 +995,29 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="C9" t="s">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="D9"/>
       <c r="E9">
-        <v>0.71999999999999997</v>
+        <v>0.60999999999999999</v>
       </c>
       <c r="F9">
-        <v>480296.903174065</v>
+        <v>452953.31133157801</v>
       </c>
       <c r="G9">
-        <v>0.98566507911606904</v>
+        <v>0.99208844079972602</v>
       </c>
       <c r="H9">
-        <v>3742527.4359117602</v>
+        <v>5213372.6334644696</v>
       </c>
       <c r="I9">
-        <v>526275.26680344704</v>
+        <v>490065.65168720699</v>
       </c>
       <c r="J9">
-        <v>7.7921123604567999</v>
+        <v>11.509735116271401</v>
       </c>
     </row>
     <row r="10">
@@ -926,29 +1025,29 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="C10" t="s">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="D10"/>
       <c r="E10">
-        <v>0.72999999999999998</v>
+        <v>0.62</v>
       </c>
       <c r="F10">
-        <v>573455.15836699901</v>
+        <v>527888.86763087404</v>
       </c>
       <c r="G10">
-        <v>0.98071491832067104</v>
+        <v>0.98969721119505305</v>
       </c>
       <c r="H10">
-        <v>3861647.8866194701</v>
+        <v>5337670.18561651</v>
       </c>
       <c r="I10">
-        <v>623115.46013150003</v>
+        <v>567164.25355894701</v>
       </c>
       <c r="J10">
-        <v>6.7340014825502799</v>
+        <v>10.111352053267501</v>
       </c>
     </row>
     <row r="11">
@@ -956,29 +1055,29 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="C11" t="s">
-        <v>136</v>
+        <v>158</v>
       </c>
       <c r="D11"/>
       <c r="E11">
-        <v>0.73999999999999999</v>
+        <v>0.63</v>
       </c>
       <c r="F11">
-        <v>674055.20708698302</v>
+        <v>607181.03496038995</v>
       </c>
       <c r="G11">
-        <v>0.97485387578966898</v>
+        <v>0.98692978615893201</v>
       </c>
       <c r="H11">
-        <v>3986206.8260997799</v>
+        <v>5466602.77837482</v>
       </c>
       <c r="I11">
-        <v>727633.87900946196</v>
+        <v>648711.49561492004</v>
       </c>
       <c r="J11">
-        <v>5.9137690565831997</v>
+        <v>9.0032502064749806</v>
       </c>
     </row>
     <row r="12">
@@ -986,29 +1085,29 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C12" t="s">
-        <v>137</v>
+        <v>159</v>
       </c>
       <c r="D12"/>
       <c r="E12">
-        <v>0.75</v>
+        <v>0.64000000000000001</v>
       </c>
       <c r="F12">
-        <v>782572.49654555903</v>
+        <v>691014.31621635705</v>
       </c>
       <c r="G12">
-        <v>0.968009729905418</v>
+        <v>0.98376445896681997</v>
       </c>
       <c r="H12">
-        <v>4116549.7439833898</v>
+        <v>5600433.09178482</v>
       </c>
       <c r="I12">
-        <v>840313.17846280499</v>
+        <v>734893.08286665403</v>
       </c>
       <c r="J12">
-        <v>5.2602790951058402</v>
+        <v>8.10465566393753</v>
       </c>
     </row>
     <row r="13">
@@ -1016,29 +1115,29 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="C13" t="s">
-        <v>138</v>
+        <v>160</v>
       </c>
       <c r="D13"/>
       <c r="E13">
-        <v>0.76000000000000001</v>
+        <v>0.65000000000000002</v>
       </c>
       <c r="F13">
-        <v>899496.30845554697</v>
+        <v>779575.48203920305</v>
       </c>
       <c r="G13">
-        <v>0.960105719182763</v>
+        <v>0.98017861676390305</v>
       </c>
       <c r="H13">
-        <v>4253059.6008800799</v>
+        <v>5739448.5206110496</v>
       </c>
       <c r="I13">
-        <v>961647.89303007605</v>
+        <v>825896.55376948905</v>
       </c>
       <c r="J13">
-        <v>4.7282679883174499</v>
+        <v>7.3622742798399399</v>
       </c>
     </row>
     <row r="14">
@@ -1046,29 +1145,29 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C14" t="s">
-        <v>139</v>
+        <v>161</v>
       </c>
       <c r="D14"/>
       <c r="E14">
-        <v>0.77000000000000002</v>
+        <v>0.66000000000000003</v>
       </c>
       <c r="F14">
-        <v>1025325.62744727</v>
+        <v>873052.67696073395</v>
       </c>
       <c r="G14">
-        <v>0.95106043052998501</v>
+        <v>0.97614873161898197</v>
       </c>
       <c r="H14">
-        <v>4396164.4577431297</v>
+        <v>5883964.7549299197</v>
       </c>
       <c r="I14">
-        <v>1092139.5874338599</v>
+        <v>921910.30872010498</v>
       </c>
       <c r="J14">
-        <v>4.2875788335537504</v>
+        <v>6.7395300538028797</v>
       </c>
     </row>
     <row r="15">
@@ -1076,29 +1175,29 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="C15" t="s">
-        <v>140</v>
+        <v>162</v>
       </c>
       <c r="D15"/>
       <c r="E15">
-        <v>0.78000000000000003</v>
+        <v>0.67000000000000004</v>
       </c>
       <c r="F15">
-        <v>1160563.5190732901</v>
+        <v>971634.36846726201</v>
       </c>
       <c r="G15">
-        <v>0.94078773312268604</v>
+        <v>0.971650356318704</v>
       </c>
       <c r="H15">
-        <v>4546347.4063935503</v>
+        <v>6034330.0411786996</v>
       </c>
       <c r="I15">
-        <v>1232290.3418640599</v>
+        <v>1023122.47674622</v>
       </c>
       <c r="J15">
-        <v>3.9173619812070402</v>
+        <v>6.2104946438831297</v>
       </c>
     </row>
     <row r="16">
@@ -1106,29 +1205,29 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="C16" t="s">
-        <v>141</v>
+        <v>163</v>
       </c>
       <c r="D16"/>
       <c r="E16">
-        <v>0.79000000000000004</v>
+        <v>0.68000000000000005</v>
       </c>
       <c r="F16">
-        <v>1305709.6571313001</v>
+        <v>1075508.13025565</v>
       </c>
       <c r="G16">
-        <v>0.92919677355528296</v>
+        <v>0.96665812569168796</v>
       </c>
       <c r="H16">
-        <v>4704159.64756162</v>
+        <v>6190930.2775672199</v>
       </c>
       <c r="I16">
-        <v>1382594.18047892</v>
+        <v>1129719.61445536</v>
       </c>
       <c r="J16">
-        <v>3.6027608602488699</v>
+        <v>5.75628403301386</v>
       </c>
     </row>
     <row r="17">
@@ -1136,29 +1235,29 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="C17" t="s">
-        <v>142</v>
+        <v>164</v>
       </c>
       <c r="D17"/>
       <c r="E17">
-        <v>0.80000000000000004</v>
+        <v>0.68999999999999995</v>
       </c>
       <c r="F17">
-        <v>1461250.5778985899</v>
+        <v>1184859.2572004399</v>
       </c>
       <c r="G17">
-        <v>0.91619205161628303</v>
+        <v>0.96114576428099796</v>
       </c>
       <c r="H17">
-        <v>4870237.9209157601</v>
+        <v>6354195.1376676001</v>
       </c>
       <c r="I17">
-        <v>1543525.9918141</v>
+        <v>1241885.2396802199</v>
       </c>
       <c r="J17">
-        <v>3.3329245473556002</v>
+        <v>5.3628269341298198</v>
       </c>
     </row>
     <row r="18">
@@ -1166,29 +1265,29 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="C18" t="s">
-        <v>143</v>
+        <v>165</v>
       </c>
       <c r="D18"/>
       <c r="E18">
-        <v>0.81000000000000005</v>
+        <v>0.69999999999999996</v>
       </c>
       <c r="F18">
-        <v>1627647.1834251999</v>
+        <v>1299869.2202504899</v>
       </c>
       <c r="G18">
-        <v>0.90167360027851595</v>
+        <v>0.95508610117156501</v>
       </c>
       <c r="H18">
-        <v>5045328.0224474203</v>
+        <v>6524605.4676005105</v>
       </c>
       <c r="I18">
-        <v>1715527.4455231801</v>
+        <v>1359798.21611505</v>
       </c>
       <c r="J18">
-        <v>3.09976761169463</v>
+        <v>5.0194322366854696</v>
       </c>
     </row>
     <row r="19">
@@ -1196,29 +1295,29 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="C19" t="s">
-        <v>144</v>
+        <v>166</v>
       </c>
       <c r="D19"/>
       <c r="E19">
-        <v>0.81999999999999995</v>
+        <v>0.70999999999999996</v>
       </c>
       <c r="F19">
-        <v>1805318.98774753</v>
+        <v>1420713.9870530199</v>
       </c>
       <c r="G19">
-        <v>0.88553729815693105</v>
+        <v>0.94845109269961803</v>
       </c>
       <c r="H19">
-        <v>5230316.9433876602</v>
+        <v>6702702.26937587</v>
       </c>
       <c r="I19">
-        <v>1898989.4116696201</v>
+        <v>1483631.02774437</v>
       </c>
       <c r="J19">
-        <v>2.89717051606124</v>
+        <v>4.7178406987315302</v>
       </c>
     </row>
     <row r="20">
@@ -1226,29 +1325,29 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="C20" t="s">
-        <v>145</v>
+        <v>167</v>
       </c>
       <c r="D20"/>
       <c r="E20">
-        <v>0.82999999999999996</v>
+        <v>0.71999999999999997</v>
       </c>
       <c r="F20">
-        <v>1994624.64180347</v>
+        <v>1547562.2622934501</v>
       </c>
       <c r="G20">
-        <v>0.86767534733104601</v>
+        <v>0.94121185358188098</v>
       </c>
       <c r="H20">
-        <v>5426277.3864299003</v>
+        <v>6889097.6708627101</v>
       </c>
       <c r="I20">
-        <v>2094230.5000372401</v>
+        <v>1613548.01767615</v>
       </c>
       <c r="J20">
-        <v>2.7204503908683502</v>
+        <v>4.4515802941932803</v>
       </c>
     </row>
     <row r="21">
@@ -1256,29 +1355,29 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="C21" t="s">
-        <v>146</v>
+        <v>168</v>
       </c>
       <c r="D21"/>
       <c r="E21">
-        <v>0.83999999999999997</v>
+        <v>0.72999999999999998</v>
       </c>
       <c r="F21">
-        <v>2195838.4741025898</v>
+        <v>1680573.7463305099</v>
       </c>
       <c r="G21">
-        <v>0.84797695302728504</v>
+        <v>0.933338696638226</v>
       </c>
       <c r="H21">
-        <v>5634530.3168294299</v>
+        <v>7084488.3987585101</v>
       </c>
       <c r="I21">
-        <v>2301471.6887914999</v>
+        <v>1749703.7223638301</v>
       </c>
       <c r="J21">
-        <v>2.5660040040660101</v>
+        <v>4.2155177148443004</v>
       </c>
     </row>
     <row r="22">
@@ -1286,29 +1385,29 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C22" t="s">
-        <v>147</v>
+        <v>169</v>
       </c>
       <c r="D22"/>
       <c r="E22">
-        <v>0.84999999999999998</v>
+        <v>0.73999999999999999</v>
       </c>
       <c r="F22">
-        <v>2409123.3299053302</v>
+        <v>1819897.5807721401</v>
       </c>
       <c r="G22">
-        <v>0.826329241944885</v>
+        <v>0.92480118064232297</v>
       </c>
       <c r="H22">
-        <v>5856734.2253652997</v>
+        <v>7289672.4247736903</v>
       </c>
       <c r="I22">
-        <v>2520807.8787970901</v>
+        <v>1892241.5207056301</v>
       </c>
       <c r="J22">
-        <v>2.4310645090948699</v>
+        <v>4.0055399280661002</v>
       </c>
     </row>
     <row r="23">
@@ -1316,29 +1415,29 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="C23" t="s">
-        <v>148</v>
+        <v>170</v>
       </c>
       <c r="D23"/>
       <c r="E23">
-        <v>0.85999999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="F23">
-        <v>2634501.2716385098</v>
+        <v>1965671.2595378701</v>
       </c>
       <c r="G23">
-        <v>0.80261844814272798</v>
+        <v>0.91556816476389202</v>
       </c>
       <c r="H23">
-        <v>6095014.6786916004</v>
+        <v>7505569.6609364096</v>
       </c>
       <c r="I23">
-        <v>2752179.1774063902</v>
+        <v>2041292.95641249</v>
       </c>
       <c r="J23">
-        <v>2.3135364345073302</v>
+        <v>3.81832395652006</v>
       </c>
     </row>
     <row r="24">
@@ -1346,29 +1445,29 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="C24" t="s">
-        <v>149</v>
+        <v>171</v>
       </c>
       <c r="D24"/>
       <c r="E24">
-        <v>0.87</v>
+        <v>0.76000000000000001</v>
       </c>
       <c r="F24">
-        <v>2871826.5587406699</v>
+        <v>2118020.4566925</v>
       </c>
       <c r="G24">
-        <v>0.77673136903172002</v>
+        <v>0.90560786631739199</v>
       </c>
       <c r="H24">
-        <v>6352155.8710981496</v>
+        <v>7733247.8569582403</v>
       </c>
       <c r="I24">
-        <v>2995349.0696725198</v>
+        <v>2196978.3109597601</v>
       </c>
       <c r="J24">
-        <v>2.21188701377692</v>
+        <v>3.6511676893973402</v>
       </c>
     </row>
     <row r="25">
@@ -1376,29 +1475,29 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="C25" t="s">
-        <v>150</v>
+        <v>172</v>
       </c>
       <c r="D25"/>
       <c r="E25">
-        <v>0.88</v>
+        <v>0.77000000000000002</v>
       </c>
       <c r="F25">
-        <v>3120771.63154518</v>
+        <v>2277060.4952342901</v>
       </c>
       <c r="G25">
-        <v>0.74855702668938295</v>
+        <v>0.894887915715052</v>
       </c>
       <c r="H25">
-        <v>6631889.7712169597</v>
+        <v>7973955.2285233904</v>
       </c>
       <c r="I25">
-        <v>3249906.3082474698</v>
+        <v>2359409.3515947699</v>
       </c>
       <c r="J25">
-        <v>2.12508012575509</v>
+        <v>3.5018635847454398</v>
       </c>
     </row>
     <row r="26">
@@ -1406,29 +1505,29 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="C26" t="s">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="D26"/>
       <c r="E26">
-        <v>0.89000000000000001</v>
+        <v>0.78000000000000003</v>
       </c>
       <c r="F26">
-        <v>3380850.9369950001</v>
+        <v>2442900.6155230301</v>
       </c>
       <c r="G26">
-        <v>0.717988311398015</v>
+        <v>0.88337539801124898</v>
       </c>
       <c r="H26">
-        <v>6939342.8133050902</v>
+        <v>8229161.8592928797</v>
       </c>
       <c r="I26">
-        <v>3515329.34710528</v>
+        <v>2528695.73464322</v>
       </c>
       <c r="J26">
-        <v>2.0525432628132898</v>
+        <v>3.3686028023415902</v>
       </c>
     </row>
     <row r="27">
@@ -1436,29 +1535,29 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="C27" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="D27"/>
       <c r="E27">
-        <v>0.90000000000000002</v>
+        <v>0.79000000000000004</v>
       </c>
       <c r="F27">
-        <v>3651539.9843028099</v>
+        <v>2615652.90087358</v>
       </c>
       <c r="G27">
-        <v>0.684923019117328</v>
+        <v>0.87103686320255502</v>
       </c>
       <c r="H27">
-        <v>7281744.1599250697</v>
+        <v>8500612.6271333396</v>
       </c>
       <c r="I27">
-        <v>3791204.1217903602</v>
+        <v>2704957.4439309998</v>
       </c>
       <c r="J27">
-        <v>1.9941570381887399</v>
+        <v>3.2499008657816502</v>
       </c>
     </row>
     <row r="28">
@@ -1466,29 +1565,29 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="C28" t="s">
-        <v>153</v>
+        <v>175</v>
       </c>
       <c r="D28"/>
       <c r="E28">
-        <v>0.91000000000000003</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="F28">
-        <v>3932625.5278866999</v>
+        <v>2795448.8558139</v>
       </c>
       <c r="G28">
-        <v>0.64926284050960503</v>
+        <v>0.85783827583566197</v>
       </c>
       <c r="H28">
-        <v>7669581.9419400403</v>
+        <v>8790395.3862934504</v>
       </c>
       <c r="I28">
-        <v>4077815.5241978001</v>
+        <v>2888347.1204069699</v>
       </c>
       <c r="J28">
-        <v>1.95024466162724</v>
+        <v>3.1445380830385798</v>
       </c>
     </row>
     <row r="29">
@@ -1496,29 +1595,29 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="C29" t="s">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="D29"/>
       <c r="E29">
-        <v>0.92000000000000004</v>
+        <v>0.81000000000000005</v>
       </c>
       <c r="F29">
-        <v>4225123.6708059404</v>
+        <v>2982468.5125837401</v>
       </c>
       <c r="G29">
-        <v>0.61090678653550001</v>
+        <v>0.84374485565999902</v>
       </c>
       <c r="H29">
-        <v>8118552.74415782</v>
+        <v>9101029.5055506397</v>
       </c>
       <c r="I29">
-        <v>4377678.6383462502</v>
+        <v>3079088.59948747</v>
       </c>
       <c r="J29">
-        <v>1.9214947009134999</v>
+        <v>3.05150899905607</v>
       </c>
     </row>
     <row r="30">
@@ -1526,29 +1625,29 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="C30" t="s">
-        <v>155</v>
+        <v>177</v>
       </c>
       <c r="D30"/>
       <c r="E30">
-        <v>0.93000000000000005</v>
+        <v>0.81999999999999995</v>
       </c>
       <c r="F30">
-        <v>4533656.6652798504</v>
+        <v>3176990.0996298702</v>
       </c>
       <c r="G30">
-        <v>0.56973021120066503</v>
+        <v>0.82872073024097503</v>
       </c>
       <c r="H30">
-        <v>8652963.3307023309</v>
+        <v>9435581.7781096995</v>
       </c>
       <c r="I30">
-        <v>4699581.0117776198</v>
+        <v>3277542.14758643</v>
       </c>
       <c r="J30">
-        <v>1.9086057832674901</v>
+        <v>2.9699751910492198</v>
       </c>
     </row>
     <row r="31">
@@ -1556,29 +1655,29 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="C31" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="D31"/>
       <c r="E31">
-        <v>0.93999999999999995</v>
+        <v>0.82999999999999996</v>
       </c>
       <c r="F31">
-        <v>4872855.7997233802</v>
+        <v>3379473.7115946701</v>
       </c>
       <c r="G31">
-        <v>0.52552581257748798</v>
+        <v>0.81272826925765995</v>
       </c>
       <c r="H31">
-        <v>9311860.3838564493</v>
+        <v>9797819.4034346007</v>
       </c>
       <c r="I31">
-        <v>5069959.2811885597</v>
+        <v>3484314.1163188801</v>
       </c>
       <c r="J31">
-        <v>1.9109657183750599</v>
+        <v>2.8992145640367499</v>
       </c>
     </row>
     <row r="32">
@@ -1586,29 +1685,29 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="C32" t="s">
-        <v>157</v>
+        <v>179</v>
       </c>
       <c r="D32"/>
       <c r="E32">
-        <v>0.94999999999999996</v>
+        <v>0.83999999999999997</v>
       </c>
       <c r="F32">
-        <v>5286053.0073731197</v>
+        <v>3590701.8697762098</v>
       </c>
       <c r="G32">
-        <v>0.47783762494814702</v>
+        <v>0.79572688375301404</v>
       </c>
       <c r="H32">
-        <v>10160240.604390001</v>
+        <v>10192413.4838793</v>
       </c>
       <c r="I32">
-        <v>5568450.6441214504</v>
+        <v>3700441.5263824202</v>
       </c>
       <c r="J32">
-        <v>1.92208450997716</v>
+        <v>2.83855743348433</v>
       </c>
     </row>
     <row r="33">
@@ -1616,29 +1715,29 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="C33" t="s">
-        <v>158</v>
+        <v>180</v>
       </c>
       <c r="D33"/>
       <c r="E33">
-        <v>0.95999999999999996</v>
+        <v>0.84999999999999998</v>
       </c>
       <c r="F33">
-        <v>5906846.4185325596</v>
+        <v>3812016.7713165502</v>
       </c>
       <c r="G33">
-        <v>0.42546061274868702</v>
+        <v>0.777670924724298</v>
       </c>
       <c r="H33">
-        <v>11308188.0944572</v>
+        <v>10625211.614379101</v>
       </c>
       <c r="I33">
-        <v>6429944.3984918203</v>
+        <v>3927705.3096174099</v>
       </c>
       <c r="J33">
-        <v>1.91442053732395</v>
+        <v>2.7872940366706498</v>
       </c>
     </row>
     <row r="34">
@@ -1646,29 +1745,29 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="C34" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="D34"/>
       <c r="E34">
-        <v>0.96999999999999997</v>
+        <v>0.85999999999999999</v>
       </c>
       <c r="F34">
-        <v>7070469.4217226701</v>
+        <v>4045725.0780768301</v>
       </c>
       <c r="G34">
-        <v>0.36498036470029999</v>
+        <v>0.75850605327809095</v>
       </c>
       <c r="H34">
-        <v>12934269.3264456</v>
+        <v>11103604.921862099</v>
       </c>
       <c r="I34">
-        <v>7955240.4809045503</v>
+        <v>4169169.2412890401</v>
       </c>
       <c r="J34">
-        <v>1.8293367179705999</v>
+        <v>2.7445277935544499</v>
       </c>
     </row>
     <row r="35">
@@ -1676,29 +1775,29 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="C35" t="s">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="D35"/>
       <c r="E35">
-        <v>0.97999999999999998</v>
+        <v>0.87</v>
       </c>
       <c r="F35">
-        <v>8953148.1738390904</v>
+        <v>4295799.7768293098</v>
       </c>
       <c r="G35">
-        <v>0.29015313638359502</v>
+        <v>0.73816298111554002</v>
       </c>
       <c r="H35">
-        <v>15423783.7492161</v>
+        <v>11637023.051137</v>
       </c>
       <c r="I35">
-        <v>10110965.301675901</v>
+        <v>4430124.8429348804</v>
       </c>
       <c r="J35">
-        <v>1.7227218236244699</v>
+        <v>2.7089305032103099</v>
       </c>
     </row>
     <row r="36">
@@ -1706,29 +1805,29 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="C36" t="s">
-        <v>161</v>
+        <v>183</v>
       </c>
       <c r="D36"/>
       <c r="E36">
-        <v>0.98999999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="F36">
-        <v>11384252.895385001</v>
+        <v>4569123.0715324199</v>
       </c>
       <c r="G36">
-        <v>0.195049096355282</v>
+        <v>0.71654660045235796</v>
       </c>
       <c r="H36">
-        <v>20736602.1967564</v>
+        <v>12237597.901820499</v>
       </c>
       <c r="I36">
-        <v>11561985.3579257</v>
+        <v>4719787.9630211098</v>
       </c>
       <c r="J36">
-        <v>1.8215162986376301</v>
+        <v>2.6783252957369199</v>
       </c>
     </row>
     <row r="37">
@@ -1736,29 +1835,29 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="C37" t="s">
-        <v>162</v>
+        <v>184</v>
       </c>
       <c r="D37"/>
       <c r="E37">
-        <v>0.99099999999999999</v>
+        <v>0.89000000000000001</v>
       </c>
       <c r="F37">
-        <v>11755840.235827999</v>
+        <v>4877745.1931838002</v>
       </c>
       <c r="G37">
-        <v>0.18417385857650501</v>
+        <v>0.69351683563187505</v>
       </c>
       <c r="H37">
-        <v>21756004.067737501</v>
+        <v>12921035.168984</v>
       </c>
       <c r="I37">
-        <v>11995872.126828199</v>
+        <v>5054433.49266499</v>
       </c>
       <c r="J37">
-        <v>1.85065496224016</v>
+        <v>2.64897706978216</v>
       </c>
     </row>
     <row r="38">
@@ -1766,29 +1865,29 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="C38" t="s">
-        <v>163</v>
+        <v>185</v>
       </c>
       <c r="D38"/>
       <c r="E38">
-        <v>0.99199999999999999</v>
+        <v>0.90000000000000002</v>
       </c>
       <c r="F38">
-        <v>12268250.895390499</v>
+        <v>5243117.5796985496</v>
       </c>
       <c r="G38">
-        <v>0.17289050561380301</v>
+        <v>0.66885419918531297</v>
       </c>
       <c r="H38">
-        <v>22976020.5603512</v>
+        <v>13707695.3366159</v>
       </c>
       <c r="I38">
-        <v>12634075.5368222</v>
+        <v>5463383.9130186802</v>
       </c>
       <c r="J38">
-        <v>1.8728032835539701</v>
+        <v>2.61441692432998</v>
       </c>
     </row>
     <row r="39">
@@ -1796,29 +1895,29 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="C39" t="s">
-        <v>164</v>
+        <v>186</v>
       </c>
       <c r="D39"/>
       <c r="E39">
-        <v>0.99299999999999999</v>
+        <v>0.91000000000000003</v>
       </c>
       <c r="F39">
-        <v>13066020.817507699</v>
+        <v>5704311.5717678601</v>
       </c>
       <c r="G39">
-        <v>0.161006856627534</v>
+        <v>0.64219612733407405</v>
       </c>
       <c r="H39">
-        <v>24453441.277998202</v>
+        <v>14623729.9392379</v>
       </c>
       <c r="I39">
-        <v>13679925.260729199</v>
+        <v>6000474.2558223801</v>
       </c>
       <c r="J39">
-        <v>1.87152933701377</v>
+        <v>2.5636274869021101</v>
       </c>
     </row>
     <row r="40">
@@ -1826,29 +1925,29 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="C40" t="s">
-        <v>165</v>
+        <v>187</v>
       </c>
       <c r="D40"/>
       <c r="E40">
-        <v>0.99399999999999999</v>
+        <v>0.92000000000000004</v>
       </c>
       <c r="F40">
-        <v>14395373.043060901</v>
+        <v>6331414.3602518598</v>
       </c>
       <c r="G40">
-        <v>0.148139478283697</v>
+        <v>0.61291737328714502</v>
       </c>
       <c r="H40">
-        <v>26249027.280876402</v>
+        <v>15701636.899664801</v>
       </c>
       <c r="I40">
-        <v>15282126.845464099</v>
+        <v>6736656.9430996096</v>
       </c>
       <c r="J40">
-        <v>1.82343501640128</v>
+        <v>2.4799572427668699</v>
       </c>
     </row>
     <row r="41">
@@ -1856,29 +1955,29 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="C41" t="s">
-        <v>166</v>
+        <v>188</v>
       </c>
       <c r="D41"/>
       <c r="E41">
-        <v>0.995</v>
+        <v>0.93000000000000005</v>
       </c>
       <c r="F41">
-        <v>16230588.254968001</v>
+        <v>7179854.0946192099</v>
       </c>
       <c r="G41">
-        <v>0.133765064369055</v>
+        <v>0.58004648453294905</v>
       </c>
       <c r="H41">
-        <v>28442407.367958799</v>
+        <v>16982348.322031301</v>
       </c>
       <c r="I41">
-        <v>17228953.988061901</v>
+        <v>7698603.9067147998</v>
       </c>
       <c r="J41">
-        <v>1.7523953489025801</v>
+        <v>2.3652776363183099</v>
       </c>
     </row>
     <row r="42">
@@ -1886,29 +1985,29 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="C42" t="s">
-        <v>167</v>
+        <v>189</v>
       </c>
       <c r="D42"/>
       <c r="E42">
-        <v>0.996</v>
+        <v>0.93999999999999995</v>
       </c>
       <c r="F42">
-        <v>18208223.334843699</v>
+        <v>8254263.4124160698</v>
       </c>
       <c r="G42">
-        <v>0.11755945905998499</v>
+        <v>0.54248186535793796</v>
       </c>
       <c r="H42">
-        <v>31245770.712933101</v>
+        <v>18529639.057917301</v>
       </c>
       <c r="I42">
-        <v>19075226.068993501</v>
+        <v>8880261.1091450099</v>
       </c>
       <c r="J42">
-        <v>1.7160252342215301</v>
+        <v>2.2448567645715101</v>
       </c>
     </row>
     <row r="43">
@@ -1916,29 +2015,29 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="C43" t="s">
-        <v>168</v>
+        <v>190</v>
       </c>
       <c r="D43"/>
       <c r="E43">
-        <v>0.997</v>
+        <v>0.94999999999999996</v>
       </c>
       <c r="F43">
-        <v>19889997.133114599</v>
+        <v>9539625.0712619796</v>
       </c>
       <c r="G43">
-        <v>0.099617244746244296</v>
+        <v>0.49915146015956802</v>
       </c>
       <c r="H43">
-        <v>35302618.927579597</v>
+        <v>20459514.6476718</v>
       </c>
       <c r="I43">
-        <v>21218240.228240699</v>
+        <v>10268004.5770432</v>
       </c>
       <c r="J43">
-        <v>1.7748931129208001</v>
+        <v>2.1446875002777501</v>
       </c>
     </row>
     <row r="44">
@@ -1946,29 +2045,29 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="C44" t="s">
-        <v>169</v>
+        <v>191</v>
       </c>
       <c r="D44"/>
       <c r="E44">
-        <v>0.998</v>
+        <v>0.95999999999999996</v>
       </c>
       <c r="F44">
-        <v>23702303.799617302</v>
+        <v>11038785.929334801</v>
       </c>
       <c r="G44">
-        <v>0.079659304947336404</v>
+        <v>0.44904969024158597</v>
       </c>
       <c r="H44">
-        <v>42344808.277249001</v>
+        <v>23007392.165328901</v>
       </c>
       <c r="I44">
-        <v>27846806.1129492</v>
+        <v>11976272.1777537</v>
       </c>
       <c r="J44">
-        <v>1.78652710872488</v>
+        <v>2.0842321168842002</v>
       </c>
     </row>
     <row r="45">
@@ -1976,29 +2075,29 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="C45" t="s">
-        <v>170</v>
+        <v>192</v>
       </c>
       <c r="D45"/>
       <c r="E45">
-        <v>0.999</v>
+        <v>0.96999999999999997</v>
       </c>
       <c r="F45">
-        <v>32586873.914659198</v>
+        <v>13096382.5808322</v>
       </c>
       <c r="G45">
-        <v>0.053466516383542301</v>
+        <v>0.39061258801565901</v>
       </c>
       <c r="H45">
-        <v>56842810.441549003</v>
+        <v>26684432.161187299</v>
       </c>
       <c r="I45">
-        <v>33797979.068439201</v>
+        <v>15066475.3440572</v>
       </c>
       <c r="J45">
-        <v>1.74434683702441</v>
+        <v>2.0375421988849398</v>
       </c>
     </row>
     <row r="46">
@@ -2006,29 +2105,29 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="C46" t="s">
-        <v>171</v>
+        <v>193</v>
       </c>
       <c r="D46"/>
       <c r="E46">
-        <v>0.99909999999999999</v>
+        <v>0.97999999999999998</v>
       </c>
       <c r="F46">
-        <v>35104951.252270199</v>
+        <v>17671677.0662141</v>
       </c>
       <c r="G46">
-        <v>0.050287468430852897</v>
+        <v>0.317097127879364</v>
       </c>
       <c r="H46">
-        <v>59403347.260783002</v>
+        <v>32493410.569752399</v>
       </c>
       <c r="I46">
-        <v>36496477.472173698</v>
+        <v>21555757.9562581</v>
       </c>
       <c r="J46">
-        <v>1.6921643569278999</v>
+        <v>1.8387281777503499</v>
       </c>
     </row>
     <row r="47">
@@ -2036,29 +2135,29 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="C47" t="s">
-        <v>172</v>
+        <v>194</v>
       </c>
       <c r="D47"/>
       <c r="E47">
-        <v>0.99919999999999998</v>
+        <v>0.98999999999999999</v>
       </c>
       <c r="F47">
-        <v>37858778.2297334</v>
+        <v>26698559.076220699</v>
       </c>
       <c r="G47">
-        <v>0.046854598916573897</v>
+        <v>0.211917818946571</v>
       </c>
       <c r="H47">
-        <v>62266705.984358698</v>
+        <v>43431063.183246702</v>
       </c>
       <c r="I47">
-        <v>38945224.4291365</v>
+        <v>27651837.382812999</v>
       </c>
       <c r="J47">
-        <v>1.6447098637603701</v>
+        <v>1.6267193693583699</v>
       </c>
     </row>
     <row r="48">
@@ -2066,29 +2165,29 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="C48" t="s">
-        <v>173</v>
+        <v>195</v>
       </c>
       <c r="D48"/>
       <c r="E48">
-        <v>0.99929999999999997</v>
+        <v>0.99099999999999999</v>
       </c>
       <c r="F48">
-        <v>39750579.260209002</v>
+        <v>28651819.2710968</v>
       </c>
       <c r="G48">
-        <v>0.043191399535990799</v>
+        <v>0.19842536299791799</v>
       </c>
       <c r="H48">
-        <v>65598346.206532903</v>
+        <v>45184310.494406</v>
       </c>
       <c r="I48">
-        <v>40913945.683705397</v>
+        <v>29658537.307834901</v>
       </c>
       <c r="J48">
-        <v>1.6502488121524801</v>
+        <v>1.5770136641894399</v>
       </c>
     </row>
     <row r="49">
@@ -2096,29 +2195,29 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="C49" t="s">
-        <v>174</v>
+        <v>196</v>
       </c>
       <c r="D49"/>
       <c r="E49">
-        <v>0.99939999999999996</v>
+        <v>0.99199999999999999</v>
       </c>
       <c r="F49">
-        <v>42221435.878187098</v>
+        <v>30597902.410488199</v>
       </c>
       <c r="G49">
-        <v>0.0393430216492879</v>
+        <v>0.18395375655139101</v>
       </c>
       <c r="H49">
-        <v>69712412.9603367</v>
+        <v>47125032.142727397</v>
       </c>
       <c r="I49">
-        <v>43640020.486400001</v>
+        <v>31202293.473905101</v>
       </c>
       <c r="J49">
-        <v>1.65111421509831</v>
+        <v>1.5401393046659999</v>
       </c>
     </row>
     <row r="50">
@@ -2126,29 +2225,29 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="C50" t="s">
-        <v>175</v>
+        <v>197</v>
       </c>
       <c r="D50"/>
       <c r="E50">
-        <v>0.99950000000000006</v>
+        <v>0.99299999999999999</v>
       </c>
       <c r="F50">
-        <v>46045131.698991597</v>
+        <v>31648489.513262101</v>
       </c>
       <c r="G50">
-        <v>0.035238228356716098</v>
+        <v>0.168728888693053</v>
       </c>
       <c r="H50">
-        <v>74926891.455122799</v>
+        <v>49399709.0954163</v>
       </c>
       <c r="I50">
-        <v>50549828.109089397</v>
+        <v>32214993.4903608</v>
       </c>
       <c r="J50">
-        <v>1.6272489336101501</v>
+        <v>1.5608867865468199</v>
       </c>
     </row>
     <row r="51">
@@ -2156,29 +2255,29 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="C51" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="D51"/>
       <c r="E51">
-        <v>0.99960000000000004</v>
+        <v>0.99399999999999999</v>
       </c>
       <c r="F51">
-        <v>53717301.952033997</v>
+        <v>33073553.209731601</v>
       </c>
       <c r="G51">
-        <v>0.030483496506223399</v>
+        <v>0.15300988331422799</v>
       </c>
       <c r="H51">
-        <v>81021157.291629493</v>
+        <v>52263828.362925597</v>
       </c>
       <c r="I51">
-        <v>58077026.065675497</v>
+        <v>34844434.204122297</v>
       </c>
       <c r="J51">
-        <v>1.5082879137149501</v>
+        <v>1.58023022296701</v>
       </c>
     </row>
     <row r="52">
@@ -2186,29 +2285,29 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="C52" t="s">
-        <v>177</v>
+        <v>199</v>
       </c>
       <c r="D52"/>
       <c r="E52">
-        <v>0.99970000000000003</v>
+        <v>0.995</v>
       </c>
       <c r="F52">
-        <v>68882771.559003606</v>
+        <v>37087961.214877002</v>
       </c>
       <c r="G52">
-        <v>0.025020754179568099</v>
+        <v>0.13600786688232699</v>
       </c>
       <c r="H52">
-        <v>88669201.033622906</v>
+        <v>55747707.194686197</v>
       </c>
       <c r="I52">
-        <v>75596644.147861794</v>
+        <v>39193823.973342903</v>
       </c>
       <c r="J52">
-        <v>1.2872478709378099</v>
+        <v>1.50312137331303</v>
       </c>
     </row>
     <row r="53">
@@ -2216,29 +2315,29 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="C53" t="s">
-        <v>178</v>
+        <v>200</v>
       </c>
       <c r="D53"/>
       <c r="E53">
-        <v>0.99980000000000002</v>
+        <v>0.996</v>
       </c>
       <c r="F53">
-        <v>82267556.4855351</v>
+        <v>40497551.568339698</v>
       </c>
       <c r="G53">
-        <v>0.017910111370961199</v>
+        <v>0.11688360630974599</v>
       </c>
       <c r="H53">
-        <v>95205479.476503402</v>
+        <v>59886178.000022098</v>
       </c>
       <c r="I53">
-        <v>88830363.628800705</v>
+        <v>41370688.2745924</v>
       </c>
       <c r="J53">
-        <v>1.15726640663313</v>
+        <v>1.47876046034447</v>
       </c>
     </row>
     <row r="54">
@@ -2246,29 +2345,29 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="C54" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="D54"/>
       <c r="E54">
-        <v>0.99990000000000001</v>
+        <v>0.997</v>
       </c>
       <c r="F54">
-        <v>95322317.730621502</v>
+        <v>42243824.980844602</v>
       </c>
       <c r="G54">
-        <v>0.0095547009761873299</v>
+        <v>0.096697165120224304</v>
       </c>
       <c r="H54">
-        <v>101580595.324205</v>
+        <v>66058007.908498697</v>
       </c>
       <c r="I54">
-        <v>95962047.326399207</v>
+        <v>45888129.405748203</v>
       </c>
       <c r="J54">
-        <v>1.0656538546541601</v>
+        <v>1.5637316918733699</v>
       </c>
     </row>
     <row r="55">
@@ -2276,29 +2375,29 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="C55" t="s">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="D55"/>
       <c r="E55">
-        <v>0.99990999999999997</v>
+        <v>0.998</v>
       </c>
       <c r="F55">
-        <v>96600705.003318906</v>
+        <v>53109624.282499298</v>
       </c>
       <c r="G55">
-        <v>0.0086520791079692308</v>
+        <v>0.0743064806965575</v>
       </c>
       <c r="H55">
-        <v>102204878.43506899</v>
+        <v>76142947.159874007</v>
       </c>
       <c r="I55">
-        <v>97237104.1427937</v>
+        <v>55819512.664934501</v>
       </c>
       <c r="J55">
-        <v>1.05801379432539</v>
+        <v>1.4336939526225301</v>
       </c>
     </row>
     <row r="56">
@@ -2306,29 +2405,29 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="C56" t="s">
-        <v>181</v>
+        <v>203</v>
       </c>
       <c r="D56"/>
       <c r="E56">
-        <v>0.99992000000000003</v>
+        <v>0.999</v>
       </c>
       <c r="F56">
-        <v>97872311.450442404</v>
+        <v>68870073.904415101</v>
       </c>
       <c r="G56">
-        <v>0.0077374640174537402</v>
+        <v>0.0470698705111166</v>
       </c>
       <c r="H56">
-        <v>102825850.2216</v>
+        <v>96466381.6548132</v>
       </c>
       <c r="I56">
-        <v>98504991.383708104</v>
+        <v>69997303.437701806</v>
       </c>
       <c r="J56">
-        <v>1.05061225894993</v>
+        <v>1.4007010038743299</v>
       </c>
     </row>
     <row r="57">
@@ -2336,29 +2435,29 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="C57" t="s">
-        <v>182</v>
+        <v>204</v>
       </c>
       <c r="D57"/>
       <c r="E57">
-        <v>0.99992999999999999</v>
+        <v>0.99909999999999999</v>
       </c>
       <c r="F57">
-        <v>99136328.379710004</v>
+        <v>71173742.463734806</v>
       </c>
       <c r="G57">
-        <v>0.0068109231418705396</v>
+        <v>0.043654417425367797</v>
       </c>
       <c r="H57">
-        <v>103443115.769875</v>
+        <v>99407390.345603198</v>
       </c>
       <c r="I57">
-        <v>99764794.0262575</v>
+        <v>72461403.450499296</v>
       </c>
       <c r="J57">
-        <v>1.0434430794498299</v>
+        <v>1.3966862905411299</v>
       </c>
     </row>
     <row r="58">
@@ -2366,29 +2465,29 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="C58" t="s">
-        <v>183</v>
+        <v>205</v>
       </c>
       <c r="D58"/>
       <c r="E58">
-        <v>0.99994000000000005</v>
+        <v>0.99919999999999998</v>
       </c>
       <c r="F58">
-        <v>100391720.2631</v>
+        <v>73812064.436586604</v>
       </c>
       <c r="G58">
-        <v>0.0058725325252126396</v>
+        <v>0.040118730879485802</v>
       </c>
       <c r="H58">
-        <v>104056169.39380699</v>
+        <v>102775638.707491</v>
       </c>
       <c r="I58">
-        <v>101015318.86445899</v>
+        <v>75307300.513813004</v>
       </c>
       <c r="J58">
-        <v>1.0365015075058299</v>
+        <v>1.39239620910193</v>
       </c>
     </row>
     <row r="59">
@@ -2396,29 +2495,29 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="C59" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="D59"/>
       <c r="E59">
-        <v>0.99995000000000001</v>
+        <v>0.99929999999999997</v>
       </c>
       <c r="F59">
-        <v>101637111.832174</v>
+        <v>76885740.061244994</v>
       </c>
       <c r="G59">
-        <v>0.0049223794347626002</v>
+        <v>0.036444181442760203</v>
       </c>
       <c r="H59">
-        <v>104664339.49968199</v>
+        <v>106699687.020873</v>
       </c>
       <c r="I59">
-        <v>102254941.69197001</v>
+        <v>78658892.475874096</v>
       </c>
       <c r="J59">
-        <v>1.0297846683454299</v>
+        <v>1.3877695257388201</v>
       </c>
     </row>
     <row r="60">
@@ -2426,29 +2525,29 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="C60" t="s">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="D60"/>
       <c r="E60">
-        <v>0.99995999999999996</v>
+        <v>0.99939999999999996</v>
       </c>
       <c r="F60">
-        <v>102870584.04959799</v>
+        <v>80546428.369416907</v>
       </c>
       <c r="G60">
-        <v>0.0039605664151778804</v>
+        <v>0.032606094204622203</v>
       </c>
       <c r="H60">
-        <v>105266688.951608</v>
+        <v>111373152.77837101</v>
       </c>
       <c r="I60">
-        <v>103481314.53398</v>
+        <v>82708726.214939401</v>
       </c>
       <c r="J60">
-        <v>1.0232924205121099</v>
+        <v>1.38271994218752</v>
       </c>
     </row>
     <row r="61">
@@ -2456,29 +2555,29 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="C61" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="D61"/>
       <c r="E61">
-        <v>0.99997000000000003</v>
+        <v>0.99950000000000006</v>
       </c>
       <c r="F61">
-        <v>104089261.86459699</v>
+        <v>85036951.532566801</v>
       </c>
       <c r="G61">
-        <v>0.0029872180962051201</v>
+        <v>0.028570399109302001</v>
       </c>
       <c r="H61">
-        <v>105861813.757476</v>
+        <v>117106038.091056</v>
       </c>
       <c r="I61">
-        <v>104690718.91784</v>
+        <v>87778620.470969707</v>
       </c>
       <c r="J61">
-        <v>1.0170291522980099</v>
+        <v>1.37711942844292</v>
       </c>
     </row>
     <row r="62">
@@ -2486,29 +2585,29 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="C62" t="s">
-        <v>187</v>
+        <v>209</v>
       </c>
       <c r="D62"/>
       <c r="E62">
-        <v>0.99997999999999998</v>
+        <v>0.99960000000000004</v>
       </c>
       <c r="F62">
-        <v>105288327.41039599</v>
+        <v>90779934.383058503</v>
       </c>
       <c r="G62">
-        <v>0.0020024940836551302</v>
+        <v>0.024287323255998899</v>
       </c>
       <c r="H62">
-        <v>106447361.17729899</v>
+        <v>124437892.496076</v>
       </c>
       <c r="I62">
-        <v>105876251.383203</v>
+        <v>94464923.783663601</v>
       </c>
       <c r="J62">
-        <v>1.0110081886132101</v>
+        <v>1.37076429215066</v>
       </c>
     </row>
     <row r="63">
@@ -2516,29 +2615,359 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="C63" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c r="D63"/>
       <c r="E63">
+        <v>0.99970000000000003</v>
+      </c>
+      <c r="F63">
+        <v>98605796.517656401</v>
+      </c>
+      <c r="G63">
+        <v>0.019677995473544301</v>
+      </c>
+      <c r="H63">
+        <v>134428882.06689101</v>
+      </c>
+      <c r="I63">
+        <v>104064365.72210599</v>
+      </c>
+      <c r="J63">
+        <v>1.3632959401410101</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>137</v>
+      </c>
+      <c r="C64" t="s">
+        <v>211</v>
+      </c>
+      <c r="D64"/>
+      <c r="E64">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="F64">
+        <v>110497937.78223</v>
+      </c>
+      <c r="G64">
+        <v>0.014600271881829101</v>
+      </c>
+      <c r="H64">
+        <v>149611140.23928401</v>
+      </c>
+      <c r="I64">
+        <v>120357840.55381</v>
+      </c>
+      <c r="J64">
+        <v>1.3539722391393201</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>138</v>
+      </c>
+      <c r="C65" t="s">
+        <v>212</v>
+      </c>
+      <c r="D65"/>
+      <c r="E65">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="F65">
+        <v>133411813.19947</v>
+      </c>
+      <c r="G65">
+        <v>0.0087275233940327795</v>
+      </c>
+      <c r="H65">
+        <v>178864439.924757</v>
+      </c>
+      <c r="I65">
+        <v>135268421.83254901</v>
+      </c>
+      <c r="J65">
+        <v>1.3406941681943001</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>139</v>
+      </c>
+      <c r="C66" t="s">
+        <v>213</v>
+      </c>
+      <c r="D66"/>
+      <c r="E66">
+        <v>0.99990999999999997</v>
+      </c>
+      <c r="F66">
+        <v>137206081.18894401</v>
+      </c>
+      <c r="G66">
+        <v>0.0080674937556604598</v>
+      </c>
+      <c r="H66">
+        <v>183708441.93498099</v>
+      </c>
+      <c r="I66">
+        <v>139326929.19184199</v>
+      </c>
+      <c r="J66">
+        <v>1.3389234671165799</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>140</v>
+      </c>
+      <c r="C67" t="s">
+        <v>214</v>
+      </c>
+      <c r="D67"/>
+      <c r="E67">
+        <v>0.99992000000000003</v>
+      </c>
+      <c r="F67">
+        <v>141551541.635943</v>
+      </c>
+      <c r="G67">
+        <v>0.0073876610094495898</v>
+      </c>
+      <c r="H67">
+        <v>189256131.02784199</v>
+      </c>
+      <c r="I67">
+        <v>144014277.15473801</v>
+      </c>
+      <c r="J67">
+        <v>1.3370121500660901</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>141</v>
+      </c>
+      <c r="C68" t="s">
+        <v>215</v>
+      </c>
+      <c r="D68"/>
+      <c r="E68">
+        <v>0.99992999999999999</v>
+      </c>
+      <c r="F68">
+        <v>146614053.33521199</v>
+      </c>
+      <c r="G68">
+        <v>0.0066849567863631696</v>
+      </c>
+      <c r="H68">
+        <v>195719253.00975299</v>
+      </c>
+      <c r="I68">
+        <v>149534532.24702799</v>
+      </c>
+      <c r="J68">
+        <v>1.3349283275203501</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>142</v>
+      </c>
+      <c r="C69" t="s">
+        <v>216</v>
+      </c>
+      <c r="D69"/>
+      <c r="E69">
+        <v>0.99994000000000005</v>
+      </c>
+      <c r="F69">
+        <v>152643406.998501</v>
+      </c>
+      <c r="G69">
+        <v>0.0059553169938226201</v>
+      </c>
+      <c r="H69">
+        <v>203416706.47016701</v>
+      </c>
+      <c r="I69">
+        <v>156204829.697898</v>
+      </c>
+      <c r="J69">
+        <v>1.33262687508124</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>143</v>
+      </c>
+      <c r="C70" t="s">
+        <v>217</v>
+      </c>
+      <c r="D70"/>
+      <c r="E70">
+        <v>0.99995000000000001</v>
+      </c>
+      <c r="F70">
+        <v>160039544.01013601</v>
+      </c>
+      <c r="G70">
+        <v>0.0051931301074678096</v>
+      </c>
+      <c r="H70">
+        <v>212859081.824682</v>
+      </c>
+      <c r="I70">
+        <v>164555222.55625999</v>
+      </c>
+      <c r="J70">
+        <v>1.3300405418001</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>144</v>
+      </c>
+      <c r="C71" t="s">
+        <v>218</v>
+      </c>
+      <c r="D71"/>
+      <c r="E71">
+        <v>0.99995999999999996</v>
+      </c>
+      <c r="F71">
+        <v>169498550.56104299</v>
+      </c>
+      <c r="G71">
+        <v>0.0043901982585950704</v>
+      </c>
+      <c r="H71">
+        <v>224935046.641718</v>
+      </c>
+      <c r="I71">
+        <v>175567929.45137501</v>
+      </c>
+      <c r="J71">
+        <v>1.3270617707182699</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>145</v>
+      </c>
+      <c r="C72" t="s">
+        <v>219</v>
+      </c>
+      <c r="D72"/>
+      <c r="E72">
+        <v>0.99997000000000003</v>
+      </c>
+      <c r="F72">
+        <v>182388173.10120001</v>
+      </c>
+      <c r="G72">
+        <v>0.00353353093435417</v>
+      </c>
+      <c r="H72">
+        <v>241390752.37171301</v>
+      </c>
+      <c r="I72">
+        <v>191378734.83681601</v>
+      </c>
+      <c r="J72">
+        <v>1.3235000289068899</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>146</v>
+      </c>
+      <c r="C73" t="s">
+        <v>220</v>
+      </c>
+      <c r="D73"/>
+      <c r="E73">
+        <v>0.99997999999999998</v>
+      </c>
+      <c r="F73">
+        <v>201975179.54982501</v>
+      </c>
+      <c r="G73">
+        <v>0.0025997162610057701</v>
+      </c>
+      <c r="H73">
+        <v>266396761.13930199</v>
+      </c>
+      <c r="I73">
+        <v>218214978.15890399</v>
+      </c>
+      <c r="J73">
+        <v>1.3189579122200299</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>147</v>
+      </c>
+      <c r="C74" t="s">
+        <v>221</v>
+      </c>
+      <c r="D74"/>
+      <c r="E74">
         <v>0.99999000000000005</v>
       </c>
-      <c r="F63">
-        <v>106457828.041401</v>
-      </c>
-      <c r="G63">
-        <v>0.00100661891752429</v>
-      </c>
-      <c r="H63">
-        <v>107018470.97139201</v>
-      </c>
-      <c r="I63">
-        <v>107018470.97139201</v>
-      </c>
-      <c r="J63">
-        <v>1.00526633823276</v>
+      <c r="F74">
+        <v>239715584.37428001</v>
+      </c>
+      <c r="G74">
+        <v>0.0015349566432735001</v>
+      </c>
+      <c r="H74">
+        <v>314578544.119156</v>
+      </c>
+      <c r="I74">
+        <v>314578544.11916</v>
+      </c>
+      <c r="J74">
+        <v>1.31229909369593</v>
       </c>
     </row>
   </sheetData>
